--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H2">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I2">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J2">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N2">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P2">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q2">
-        <v>0.07885687898633333</v>
+        <v>0.1320416017946667</v>
       </c>
       <c r="R2">
-        <v>0.709711910877</v>
+        <v>1.188374416152</v>
       </c>
       <c r="S2">
-        <v>0.008552207751963371</v>
+        <v>0.02203039865906022</v>
       </c>
       <c r="T2">
-        <v>0.008552207751963374</v>
+        <v>0.02203039865906021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H3">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I3">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J3">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.727147</v>
       </c>
       <c r="O3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P3">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q3">
-        <v>0.1579715424376667</v>
+        <v>0.2114868950102222</v>
       </c>
       <c r="R3">
-        <v>1.421743881939</v>
+        <v>1.903382055092</v>
       </c>
       <c r="S3">
-        <v>0.01713237281504847</v>
+        <v>0.03528539903270241</v>
       </c>
       <c r="T3">
-        <v>0.01713237281504847</v>
+        <v>0.03528539903270239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,87 +658,87 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.044179</v>
+        <v>0.05914533333333333</v>
       </c>
       <c r="H4">
-        <v>0.132537</v>
+        <v>0.177436</v>
       </c>
       <c r="I4">
-        <v>0.03840354245492683</v>
+        <v>0.07385227547053584</v>
       </c>
       <c r="J4">
-        <v>0.03840354245492684</v>
+        <v>0.07385227547053583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N4">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P4">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q4">
-        <v>0.0009014430423333334</v>
+        <v>0.09911318663555554</v>
       </c>
       <c r="R4">
-        <v>0.008112987381000001</v>
+        <v>0.8920186797199998</v>
       </c>
       <c r="S4">
-        <v>9.776354674057899E-05</v>
+        <v>0.01653647777877322</v>
       </c>
       <c r="T4">
-        <v>9.7763546740579E-05</v>
+        <v>0.01653647777877321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.044179</v>
+        <v>0.264922</v>
       </c>
       <c r="H5">
-        <v>0.132537</v>
+        <v>0.794766</v>
       </c>
       <c r="I5">
-        <v>0.03840354245492683</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J5">
-        <v>0.03840354245492684</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.614068666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N5">
-        <v>7.842206000000001</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P5">
-        <v>0.3261371290339591</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q5">
-        <v>0.1154869396246667</v>
+        <v>0.5914367754680001</v>
       </c>
       <c r="R5">
-        <v>1.039382456622</v>
+        <v>5.322930979212001</v>
       </c>
       <c r="S5">
-        <v>0.0125248210809836</v>
+        <v>0.09867789975352607</v>
       </c>
       <c r="T5">
-        <v>0.0125248210809836</v>
+        <v>0.09867789975352603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.044179</v>
+        <v>0.264922</v>
       </c>
       <c r="H6">
-        <v>0.132537</v>
+        <v>0.794766</v>
       </c>
       <c r="I6">
-        <v>0.03840354245492683</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J6">
-        <v>0.03840354245492684</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.020115</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N6">
-        <v>0.060345</v>
+        <v>10.727147</v>
       </c>
       <c r="O6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P6">
-        <v>0.002509592970594532</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q6">
-        <v>0.0008886605850000001</v>
+        <v>0.9472857458446667</v>
       </c>
       <c r="R6">
-        <v>0.007997945265</v>
+        <v>8.525571712602</v>
       </c>
       <c r="S6">
-        <v>9.637726019081306E-05</v>
+        <v>0.1580492991705447</v>
       </c>
       <c r="T6">
-        <v>9.637726019081307E-05</v>
+        <v>0.1580492991705446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.794766</v>
       </c>
       <c r="I7">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396599</v>
       </c>
       <c r="J7">
-        <v>0.2302891254723766</v>
+        <v>0.3307968933396598</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.784940333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N7">
-        <v>5.354820999999999</v>
+        <v>5.02727</v>
       </c>
       <c r="O7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P7">
-        <v>0.2226931997744963</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q7">
-        <v>0.4728699629873332</v>
+        <v>0.4439448076466666</v>
       </c>
       <c r="R7">
-        <v>4.255829666885999</v>
+        <v>3.995503268819999</v>
       </c>
       <c r="S7">
-        <v>0.051283822224714</v>
+        <v>0.07406969441558915</v>
       </c>
       <c r="T7">
-        <v>0.05128382222471401</v>
+        <v>0.07406969441558912</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.264922</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H8">
-        <v>0.794766</v>
+        <v>0.39979</v>
       </c>
       <c r="I8">
-        <v>0.2302891254723766</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J8">
-        <v>0.2302891254723766</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,42 +933,42 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.575715666666667</v>
+        <v>2.232494</v>
       </c>
       <c r="N8">
-        <v>10.727147</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P8">
-        <v>0.4461143873682032</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q8">
-        <v>0.9472857458446667</v>
+        <v>0.2975095920866667</v>
       </c>
       <c r="R8">
-        <v>8.525571712602</v>
+        <v>2.67758632878</v>
       </c>
       <c r="S8">
-        <v>0.1027352921276685</v>
+        <v>0.04963780224929374</v>
       </c>
       <c r="T8">
-        <v>0.1027352921276686</v>
+        <v>0.04963780224929372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,51 +977,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.264922</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H9">
-        <v>0.794766</v>
+        <v>0.39979</v>
       </c>
       <c r="I9">
-        <v>0.2302891254723766</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J9">
-        <v>0.2302891254723766</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02040433333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N9">
-        <v>0.061213</v>
+        <v>10.727147</v>
       </c>
       <c r="O9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P9">
-        <v>0.002545690852746758</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q9">
-        <v>0.005405556795333333</v>
+        <v>0.4765117887922222</v>
       </c>
       <c r="R9">
-        <v>0.04865001115799999</v>
+        <v>4.28860609913</v>
       </c>
       <c r="S9">
-        <v>0.0005862449202020793</v>
+        <v>0.07950331206341495</v>
       </c>
       <c r="T9">
-        <v>0.0005862449202020794</v>
+        <v>0.07950331206341492</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.264922</v>
+        <v>0.1332633333333333</v>
       </c>
       <c r="H10">
-        <v>0.794766</v>
+        <v>0.39979</v>
       </c>
       <c r="I10">
-        <v>0.2302891254723766</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="J10">
-        <v>0.2302891254723766</v>
+        <v>0.1664002863588309</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.614068666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N10">
-        <v>7.842206000000001</v>
+        <v>5.02727</v>
       </c>
       <c r="O10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P10">
-        <v>0.3261371290339591</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q10">
-        <v>0.6925242993106667</v>
+        <v>0.2233169192555555</v>
       </c>
       <c r="R10">
-        <v>6.232718693796</v>
+        <v>2.0098522733</v>
       </c>
       <c r="S10">
-        <v>0.07510583422930207</v>
+        <v>0.03725917204612224</v>
       </c>
       <c r="T10">
-        <v>0.07510583422930209</v>
+        <v>0.03725917204612222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.264922</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H11">
-        <v>0.794766</v>
+        <v>0.330422</v>
       </c>
       <c r="I11">
-        <v>0.2302891254723766</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J11">
-        <v>0.2302891254723766</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.020115</v>
+        <v>2.232494</v>
       </c>
       <c r="N11">
-        <v>0.060345</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P11">
-        <v>0.002509592970594532</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q11">
-        <v>0.00532890603</v>
+        <v>0.2458883774893334</v>
       </c>
       <c r="R11">
-        <v>0.04796015427</v>
+        <v>2.212995397404</v>
       </c>
       <c r="S11">
-        <v>0.0005779319704898384</v>
+        <v>0.04102509291081852</v>
       </c>
       <c r="T11">
-        <v>0.0005779319704898385</v>
+        <v>0.0410250929108185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1903823333333333</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H12">
-        <v>0.5711470000000001</v>
+        <v>0.330422</v>
       </c>
       <c r="I12">
-        <v>0.165493922923441</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J12">
-        <v>0.165493922923441</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.784940333333333</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N12">
-        <v>5.354820999999999</v>
+        <v>10.727147</v>
       </c>
       <c r="O12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P12">
-        <v>0.2226931997744963</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q12">
-        <v>0.3398211055207778</v>
+        <v>0.3938317073371111</v>
       </c>
       <c r="R12">
-        <v>3.058389949687</v>
+        <v>3.544485366034</v>
       </c>
       <c r="S12">
-        <v>0.03685437123905493</v>
+        <v>0.06570860546441307</v>
       </c>
       <c r="T12">
-        <v>0.03685437123905494</v>
+        <v>0.06570860546441303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1903823333333333</v>
+        <v>0.1101406666666667</v>
       </c>
       <c r="H13">
-        <v>0.5711470000000001</v>
+        <v>0.330422</v>
       </c>
       <c r="I13">
-        <v>0.165493922923441</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="J13">
-        <v>0.165493922923441</v>
+        <v>0.1375279907432843</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.575715666666667</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N13">
-        <v>10.727147</v>
+        <v>5.02727</v>
       </c>
       <c r="O13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P13">
-        <v>0.4461143873682032</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q13">
-        <v>0.6807530919565556</v>
+        <v>0.1845689564377778</v>
       </c>
       <c r="R13">
-        <v>6.126777827609001</v>
+        <v>1.66112060794</v>
       </c>
       <c r="S13">
-        <v>0.0738292200381515</v>
+        <v>0.03079429236805274</v>
       </c>
       <c r="T13">
-        <v>0.07382922003815152</v>
+        <v>0.03079429236805272</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1903823333333333</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H14">
-        <v>0.5711470000000001</v>
+        <v>0.128686</v>
       </c>
       <c r="I14">
-        <v>0.165493922923441</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J14">
-        <v>0.165493922923441</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02040433333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N14">
-        <v>0.061213</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P14">
-        <v>0.002545690852746758</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q14">
-        <v>0.003884624590111112</v>
+        <v>0.09576357429466668</v>
       </c>
       <c r="R14">
-        <v>0.034961621311</v>
+        <v>0.8618721686520001</v>
       </c>
       <c r="S14">
-        <v>0.0004212963657713806</v>
+        <v>0.01597761379787542</v>
       </c>
       <c r="T14">
-        <v>0.0004212963657713806</v>
+        <v>0.01597761379787541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1903823333333333</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H15">
-        <v>0.5711470000000001</v>
+        <v>0.128686</v>
       </c>
       <c r="I15">
-        <v>0.165493922923441</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J15">
-        <v>0.165493922923441</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.614068666666667</v>
+        <v>3.575715666666667</v>
       </c>
       <c r="N15">
-        <v>7.842206000000001</v>
+        <v>10.727147</v>
       </c>
       <c r="O15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P15">
-        <v>0.3261371290339591</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q15">
-        <v>0.4976724922535556</v>
+        <v>0.1533815154268889</v>
       </c>
       <c r="R15">
-        <v>4.479052430282001</v>
+        <v>1.380433638842</v>
       </c>
       <c r="S15">
-        <v>0.05397371289481834</v>
+        <v>0.02559084323317896</v>
       </c>
       <c r="T15">
-        <v>0.05397371289481836</v>
+        <v>0.02559084323317895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1903823333333333</v>
+        <v>0.04289533333333333</v>
       </c>
       <c r="H16">
-        <v>0.5711470000000001</v>
+        <v>0.128686</v>
       </c>
       <c r="I16">
-        <v>0.165493922923441</v>
+        <v>0.05356158795961009</v>
       </c>
       <c r="J16">
-        <v>0.165493922923441</v>
+        <v>0.05356158795961007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.020115</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N16">
-        <v>0.060345</v>
+        <v>5.02727</v>
       </c>
       <c r="O16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P16">
-        <v>0.002509592970594532</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q16">
-        <v>0.003829540635</v>
+        <v>0.07188214080222222</v>
       </c>
       <c r="R16">
-        <v>0.03446586571500001</v>
+        <v>0.6469392672199999</v>
       </c>
       <c r="S16">
-        <v>0.0004153223856447807</v>
+        <v>0.01199313092855571</v>
       </c>
       <c r="T16">
-        <v>0.0004153223856447807</v>
+        <v>0.0119931309285557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4567919999999999</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H17">
-        <v>1.370376</v>
+        <v>0.57148</v>
       </c>
       <c r="I17">
-        <v>0.3970762345247953</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J17">
-        <v>0.3970762345247953</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.784940333333333</v>
+        <v>2.232494</v>
       </c>
       <c r="N17">
-        <v>5.354820999999999</v>
+        <v>6.697482000000001</v>
       </c>
       <c r="O17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032896</v>
       </c>
       <c r="P17">
-        <v>0.2226931997744963</v>
+        <v>0.2983035867032895</v>
       </c>
       <c r="Q17">
-        <v>0.8153464647439997</v>
+        <v>0.4252752237066667</v>
       </c>
       <c r="R17">
-        <v>7.338118182695998</v>
+        <v>3.82747701336</v>
       </c>
       <c r="S17">
-        <v>0.08842617722073498</v>
+        <v>0.07095477933271564</v>
       </c>
       <c r="T17">
-        <v>0.08842617722073501</v>
+        <v>0.07095477933271561</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4567919999999999</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H18">
-        <v>1.370376</v>
+        <v>0.57148</v>
       </c>
       <c r="I18">
-        <v>0.3970762345247953</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J18">
-        <v>0.3970762345247953</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>10.727147</v>
       </c>
       <c r="O18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834676</v>
       </c>
       <c r="P18">
-        <v>0.4461143873682032</v>
+        <v>0.4777835050834675</v>
       </c>
       <c r="Q18">
-        <v>1.633358310808</v>
+        <v>0.6811499963955555</v>
       </c>
       <c r="R18">
-        <v>14.700224797272</v>
+        <v>6.13034996756</v>
       </c>
       <c r="S18">
-        <v>0.177141421103502</v>
+        <v>0.1136460461192135</v>
       </c>
       <c r="T18">
-        <v>0.1771414211035021</v>
+        <v>0.1136460461192135</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4567919999999999</v>
+        <v>0.1904933333333333</v>
       </c>
       <c r="H19">
-        <v>1.370376</v>
+        <v>0.57148</v>
       </c>
       <c r="I19">
-        <v>0.3970762345247953</v>
+        <v>0.237860966128079</v>
       </c>
       <c r="J19">
-        <v>0.3970762345247953</v>
+        <v>0.2378609661280789</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.02040433333333333</v>
+        <v>1.675756666666667</v>
       </c>
       <c r="N19">
-        <v>0.061213</v>
+        <v>5.02727</v>
       </c>
       <c r="O19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132429</v>
       </c>
       <c r="P19">
-        <v>0.002545690852746758</v>
+        <v>0.2239129082132428</v>
       </c>
       <c r="Q19">
-        <v>0.009320536231999998</v>
+        <v>0.3192204732888889</v>
       </c>
       <c r="R19">
-        <v>0.08388482608799998</v>
+        <v>2.8729842596</v>
       </c>
       <c r="S19">
-        <v>0.001010833338072898</v>
+        <v>0.05326014067614982</v>
       </c>
       <c r="T19">
-        <v>0.001010833338072898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4567919999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.370376</v>
-      </c>
-      <c r="I20">
-        <v>0.3970762345247953</v>
-      </c>
-      <c r="J20">
-        <v>0.3970762345247953</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N20">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P20">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q20">
-        <v>1.194085654384</v>
-      </c>
-      <c r="R20">
-        <v>10.746770889456</v>
-      </c>
-      <c r="S20">
-        <v>0.1295013031355318</v>
-      </c>
-      <c r="T20">
-        <v>0.1295013031355318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4567919999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.370376</v>
-      </c>
-      <c r="I21">
-        <v>0.3970762345247953</v>
-      </c>
-      <c r="J21">
-        <v>0.3970762345247953</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.020115</v>
-      </c>
-      <c r="N21">
-        <v>0.060345</v>
-      </c>
-      <c r="O21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P21">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q21">
-        <v>0.009188371079999999</v>
-      </c>
-      <c r="R21">
-        <v>0.08269533972</v>
-      </c>
-      <c r="S21">
-        <v>0.0009964997269535721</v>
-      </c>
-      <c r="T21">
-        <v>0.0009964997269535723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.072059</v>
-      </c>
-      <c r="H22">
-        <v>0.216177</v>
-      </c>
-      <c r="I22">
-        <v>0.06263882989111505</v>
-      </c>
-      <c r="J22">
-        <v>0.06263882989111506</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N22">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P22">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q22">
-        <v>0.1286210154796666</v>
-      </c>
-      <c r="R22">
-        <v>1.157589139317</v>
-      </c>
-      <c r="S22">
-        <v>0.01394924145858278</v>
-      </c>
-      <c r="T22">
-        <v>0.01394924145858278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.072059</v>
-      </c>
-      <c r="H23">
-        <v>0.216177</v>
-      </c>
-      <c r="I23">
-        <v>0.06263882989111505</v>
-      </c>
-      <c r="J23">
-        <v>0.06263882989111506</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N23">
-        <v>10.727147</v>
-      </c>
-      <c r="O23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P23">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q23">
-        <v>0.2576624952243333</v>
-      </c>
-      <c r="R23">
-        <v>2.318962457019</v>
-      </c>
-      <c r="S23">
-        <v>0.02794408322233588</v>
-      </c>
-      <c r="T23">
-        <v>0.02794408322233589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.072059</v>
-      </c>
-      <c r="H24">
-        <v>0.216177</v>
-      </c>
-      <c r="I24">
-        <v>0.06263882989111505</v>
-      </c>
-      <c r="J24">
-        <v>0.06263882989111506</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.061213</v>
-      </c>
-      <c r="O24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P24">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q24">
-        <v>0.001470315855666667</v>
-      </c>
-      <c r="R24">
-        <v>0.013232842701</v>
-      </c>
-      <c r="S24">
-        <v>0.0001594590962805718</v>
-      </c>
-      <c r="T24">
-        <v>0.0001594590962805718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.072059</v>
-      </c>
-      <c r="H25">
-        <v>0.216177</v>
-      </c>
-      <c r="I25">
-        <v>0.06263882989111505</v>
-      </c>
-      <c r="J25">
-        <v>0.06263882989111506</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N25">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P25">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q25">
-        <v>0.1883671740513334</v>
-      </c>
-      <c r="R25">
-        <v>1.695304566462</v>
-      </c>
-      <c r="S25">
-        <v>0.0204288481467348</v>
-      </c>
-      <c r="T25">
-        <v>0.02042884814673481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.072059</v>
-      </c>
-      <c r="H26">
-        <v>0.216177</v>
-      </c>
-      <c r="I26">
-        <v>0.06263882989111505</v>
-      </c>
-      <c r="J26">
-        <v>0.06263882989111506</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.020115</v>
-      </c>
-      <c r="N26">
-        <v>0.060345</v>
-      </c>
-      <c r="O26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P26">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q26">
-        <v>0.001449466785</v>
-      </c>
-      <c r="R26">
-        <v>0.013045201065</v>
-      </c>
-      <c r="S26">
-        <v>0.000157197967181009</v>
-      </c>
-      <c r="T26">
-        <v>0.000157197967181009</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.1220543333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.366163</v>
-      </c>
-      <c r="I27">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="J27">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.784940333333333</v>
-      </c>
-      <c r="N27">
-        <v>5.354820999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="P27">
-        <v>0.2226931997744963</v>
-      </c>
-      <c r="Q27">
-        <v>0.2178597024247778</v>
-      </c>
-      <c r="R27">
-        <v>1.960737321823</v>
-      </c>
-      <c r="S27">
-        <v>0.02362737987944622</v>
-      </c>
-      <c r="T27">
-        <v>0.02362737987944622</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.1220543333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.366163</v>
-      </c>
-      <c r="I28">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="J28">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>3.575715666666667</v>
-      </c>
-      <c r="N28">
-        <v>10.727147</v>
-      </c>
-      <c r="O28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="P28">
-        <v>0.4461143873682032</v>
-      </c>
-      <c r="Q28">
-        <v>0.4364315918845556</v>
-      </c>
-      <c r="R28">
-        <v>3.927884326961</v>
-      </c>
-      <c r="S28">
-        <v>0.04733199806149672</v>
-      </c>
-      <c r="T28">
-        <v>0.04733199806149672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.1220543333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.366163</v>
-      </c>
-      <c r="I29">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="J29">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.02040433333333333</v>
-      </c>
-      <c r="N29">
-        <v>0.061213</v>
-      </c>
-      <c r="O29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="P29">
-        <v>0.002545690852746758</v>
-      </c>
-      <c r="Q29">
-        <v>0.002490437302111111</v>
-      </c>
-      <c r="R29">
-        <v>0.022413935719</v>
-      </c>
-      <c r="S29">
-        <v>0.000270093585679249</v>
-      </c>
-      <c r="T29">
-        <v>0.000270093585679249</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.1220543333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.366163</v>
-      </c>
-      <c r="I30">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="J30">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.614068666666667</v>
-      </c>
-      <c r="N30">
-        <v>7.842206000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="P30">
-        <v>0.3261371290339591</v>
-      </c>
-      <c r="Q30">
-        <v>0.3190584083975556</v>
-      </c>
-      <c r="R30">
-        <v>2.871525675578</v>
-      </c>
-      <c r="S30">
-        <v>0.03460260954658848</v>
-      </c>
-      <c r="T30">
-        <v>0.03460260954658848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.1220543333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.366163</v>
-      </c>
-      <c r="I31">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="J31">
-        <v>0.1060983447333452</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.020115</v>
-      </c>
-      <c r="N31">
-        <v>0.060345</v>
-      </c>
-      <c r="O31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="P31">
-        <v>0.002509592970594532</v>
-      </c>
-      <c r="Q31">
-        <v>0.002455122915</v>
-      </c>
-      <c r="R31">
-        <v>0.022096106235</v>
-      </c>
-      <c r="S31">
-        <v>0.0002662636601345185</v>
-      </c>
-      <c r="T31">
-        <v>0.0002662636601345185</v>
+        <v>0.0532601406761498</v>
       </c>
     </row>
   </sheetData>
